--- a/data/trans_orig/P29_R2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P29_R2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>105114</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87797</v>
+        <v>88093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126043</v>
+        <v>126020</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2117919736355341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1768987804238279</v>
+        <v>0.1774965362887748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2539610618320874</v>
+        <v>0.2539132431576229</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -762,19 +762,19 @@
         <v>19839</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12907</v>
+        <v>13461</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28217</v>
+        <v>28524</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03190014396559974</v>
+        <v>0.03190014396559973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02075365206892477</v>
+        <v>0.02164409946409668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04537230341210528</v>
+        <v>0.04586573864515513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -783,19 +783,19 @@
         <v>124953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105300</v>
+        <v>104819</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146086</v>
+        <v>148045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1117431859218266</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09416762588635189</v>
+        <v>0.09373707149352135</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.130641727056894</v>
+        <v>0.1323931510833832</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>391196</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>370267</v>
+        <v>370290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>408513</v>
+        <v>408217</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7882080263644659</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7460389381679128</v>
+        <v>0.7460867568423769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.823101219576172</v>
+        <v>0.8225034637112251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>831</v>
@@ -833,19 +833,19 @@
         <v>602071</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>593693</v>
+        <v>593386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>609003</v>
+        <v>608449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9680998560344002</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9546276965878948</v>
+        <v>0.9541342613548448</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9792463479310751</v>
+        <v>0.9783559005359033</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1175</v>
@@ -854,19 +854,19 @@
         <v>993267</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>972134</v>
+        <v>970175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1012920</v>
+        <v>1013401</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8882568140781735</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8693582729431059</v>
+        <v>0.8676068489166167</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.905832374113648</v>
+        <v>0.9062629285064788</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>177098</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153252</v>
+        <v>153160</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>201982</v>
+        <v>201578</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1845957285120849</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1597398818398041</v>
+        <v>0.1596443965509423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.210533005909045</v>
+        <v>0.2101123670989318</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -979,19 +979,19 @@
         <v>33480</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24101</v>
+        <v>24351</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44250</v>
+        <v>45543</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03008006735256908</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02165305179719696</v>
+        <v>0.02187753537956802</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03975614302062717</v>
+        <v>0.04091801398886996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>252</v>
@@ -1000,19 +1000,19 @@
         <v>210578</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188134</v>
+        <v>185927</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>236954</v>
+        <v>239672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1016097352805511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09077993098332621</v>
+        <v>0.08971493326255543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1143366635031354</v>
+        <v>0.1156482603529086</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>782285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757401</v>
+        <v>757805</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>806131</v>
+        <v>806223</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8154042714879151</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.789466994090955</v>
+        <v>0.7898876329010681</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8402601181601959</v>
+        <v>0.8403556034490577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1554</v>
@@ -1050,19 +1050,19 @@
         <v>1079560</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1068790</v>
+        <v>1067497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1088939</v>
+        <v>1088689</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9699199326474311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9602438569793732</v>
+        <v>0.9590819860111303</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9783469482028031</v>
+        <v>0.9781224646204324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2260</v>
@@ -1071,19 +1071,19 @@
         <v>1861845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1835469</v>
+        <v>1832751</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1884289</v>
+        <v>1886496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8983902647194487</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8856633364968648</v>
+        <v>0.8843517396470915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9092200690166741</v>
+        <v>0.9102850667374447</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>166320</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144446</v>
+        <v>146444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>193923</v>
+        <v>190661</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1590732325938261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1381530351877721</v>
+        <v>0.1400637090841083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1854739286626599</v>
+        <v>0.1823541229582008</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1196,19 +1196,19 @@
         <v>27237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19732</v>
+        <v>19720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35366</v>
+        <v>36688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02599872604296946</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01883505691824865</v>
+        <v>0.0188236834108489</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03375758891084495</v>
+        <v>0.03501915756471444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>237</v>
@@ -1217,19 +1217,19 @@
         <v>193557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169019</v>
+        <v>170362</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219657</v>
+        <v>221430</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09246960510354124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08074675899177271</v>
+        <v>0.08138833619213318</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1049386335402684</v>
+        <v>0.1057855392494287</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>879234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>851631</v>
+        <v>854893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>901108</v>
+        <v>899110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8409267674061739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.81452607133734</v>
+        <v>0.8176458770417989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8618469648122279</v>
+        <v>0.8599362909158916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1470</v>
@@ -1267,19 +1267,19 @@
         <v>1020405</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1012276</v>
+        <v>1010954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1027910</v>
+        <v>1027922</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9740012739570305</v>
+        <v>0.9740012739570306</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9662424110891552</v>
+        <v>0.9649808424352855</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9811649430817516</v>
+        <v>0.9811763165891509</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2307</v>
@@ -1288,19 +1288,19 @@
         <v>1899638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1873538</v>
+        <v>1871765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1924176</v>
+        <v>1922833</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9075303948964587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8950613664597316</v>
+        <v>0.8942144607505711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9192532410082271</v>
+        <v>0.918611663807867</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>121751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104196</v>
+        <v>102676</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143549</v>
+        <v>140184</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.124905351456757</v>
+        <v>0.1249053514567569</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.106895201189156</v>
+        <v>0.1053364942651944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1472679126572755</v>
+        <v>0.1438160430748733</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1413,19 +1413,19 @@
         <v>38955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29197</v>
+        <v>29951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49804</v>
+        <v>50644</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04299074147329806</v>
+        <v>0.04299074147329807</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03222129679632428</v>
+        <v>0.0330533363924001</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05496300494100692</v>
+        <v>0.05589079083806322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -1434,19 +1434,19 @@
         <v>160706</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138348</v>
+        <v>141427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182959</v>
+        <v>185472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08544221463117016</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.073555214942266</v>
+        <v>0.07519229716448869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0972734550790694</v>
+        <v>0.09860941793021906</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>852994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>831196</v>
+        <v>834561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>870549</v>
+        <v>872069</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8750946485432431</v>
+        <v>0.875094648543243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8527320873427244</v>
+        <v>0.8561839569251267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8931047988108439</v>
+        <v>0.8946635057348058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1258</v>
@@ -1484,19 +1484,19 @@
         <v>867174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>856325</v>
+        <v>855485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>876932</v>
+        <v>876178</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9570092585267019</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9450369950589933</v>
+        <v>0.9441092091619355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9677787032036758</v>
+        <v>0.9669466636076</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2056</v>
@@ -1505,19 +1505,19 @@
         <v>1720168</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1697915</v>
+        <v>1695402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1742526</v>
+        <v>1739447</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.91455778536883</v>
+        <v>0.9145577853688299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9027265449209303</v>
+        <v>0.901390582069781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9264447850577332</v>
+        <v>0.9248077028355113</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>570283</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>529569</v>
+        <v>531491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>617497</v>
+        <v>619195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1640633785948261</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1523504900966044</v>
+        <v>0.1529033862605236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1776463023153633</v>
+        <v>0.1781346437644739</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -1630,19 +1630,19 @@
         <v>119512</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>104021</v>
+        <v>103834</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137802</v>
+        <v>139167</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03239926554821993</v>
+        <v>0.03239926554821994</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02819963057641554</v>
+        <v>0.02814902158250725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0373575895569179</v>
+        <v>0.03772761124057477</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>834</v>
@@ -1651,19 +1651,19 @@
         <v>689795</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>640885</v>
+        <v>644231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>738089</v>
+        <v>741029</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09627669210799782</v>
+        <v>0.0962766921079978</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08945028003416208</v>
+        <v>0.08991722581233091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1030171949155079</v>
+        <v>0.103427665062784</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2905709</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2858495</v>
+        <v>2856797</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2946423</v>
+        <v>2944501</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.835936621405174</v>
+        <v>0.8359366214051739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8223536976846367</v>
+        <v>0.821865356235526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8476495099033955</v>
+        <v>0.8470966137394764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5113</v>
@@ -1701,19 +1701,19 @@
         <v>3569208</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3550918</v>
+        <v>3549553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3584699</v>
+        <v>3584886</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.96760073445178</v>
+        <v>0.9676007344517801</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9626424104430822</v>
+        <v>0.9622723887594252</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9718003694235844</v>
+        <v>0.9718509784174927</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7798</v>
@@ -1722,19 +1722,19 @@
         <v>6474917</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6426623</v>
+        <v>6423683</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6523827</v>
+        <v>6520481</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9037233078920023</v>
+        <v>0.9037233078920021</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8969828050844919</v>
+        <v>0.8965723349372161</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9105497199658379</v>
+        <v>0.9100827741876691</v>
       </c>
     </row>
     <row r="18">
